--- a/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
+++ b/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Open-Source\Magnetic-Sequencer\Project Outputs for Magnetic-Sequencer\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588CF30E-A012-4066-935E-5E58B990638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B344B10B-A19B-4D74-ADF7-B9C71EECEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23745" yWindow="8985" windowWidth="20190" windowHeight="15435" xr2:uid="{5E9277BF-13B3-47B4-B091-39DC4C2501D3}"/>
+    <workbookView xWindow="-15390" yWindow="10875" windowWidth="14400" windowHeight="13185" xr2:uid="{737E54D0-6BF1-4804-AFDC-06C674F21A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Magnetic-Sequ" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>R1, R19, R20</t>
   </si>
   <si>
-    <t>5.1k, 0603</t>
+    <t>5.1kR, 0603</t>
   </si>
   <si>
     <t>Resistor 0603</t>
@@ -118,7 +118,7 @@
     <t>R3, R4, R5, R6, R7, R8, R9, R10</t>
   </si>
   <si>
-    <t>1.2k, 0603</t>
+    <t>1.2kR, 0603</t>
   </si>
   <si>
     <t>R21</t>
@@ -548,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68601C60-46BF-4927-AD0A-FF5257FC01F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE94564-205F-43CC-854F-1C1256838168}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
+++ b/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Open-Source\Magnetic-Sequencer\Project Outputs for Magnetic-Sequencer\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B344B10B-A19B-4D74-ADF7-B9C71EECEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB536EDC-F44D-4CDF-B087-D3817B36EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15390" yWindow="10875" windowWidth="14400" windowHeight="13185" xr2:uid="{737E54D0-6BF1-4804-AFDC-06C674F21A9D}"/>
+    <workbookView xWindow="-26715" yWindow="8310" windowWidth="19080" windowHeight="17310" xr2:uid="{01E37250-0E70-4208-A306-44A2A59788AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Magnetic-Sequ" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +56,7 @@
     <t>C1_CH1, C1_CH2, C1_CH3, C1_CH4, C1_CH5, C1_CH6, C1_CH7, C1_CH8, C1_CH9, C1_CH10, C1_CH11, C1_CH12, C1_CH13, C1_CH14, C1_CH15, C1_CH16, C1_CH17, C1_CH18, C1_CH19, C1_CH20, C1_CH21, C1_CH22, C1_CH23, C1_CH24, C1_CH25, C1_CH26, C1_CH27, C1_CH28, C1_CH29, C1_CH30, C1_CH31, C1_CH32, C1_CH33, C1_CH34, C1_CH35, C1_CH36, C1_CH37, C1_CH38, C1_CH39, C1_CH40, C1_CH41, C1_CH42, C1_CH43, C1_CH44, C1_CH45, C1_CH46, C1_CH47, C1_CH48, C1_CH49, C1_CH50, C1_CH51, C1_CH52, C1_CH53, C1_CH54, C1_CH55, C1_CH56, C1_CH57, C1_CH58, C1_CH59, C1_CH60, C1_CH61, C1_CH62, C1_CH63, C1_CH64, C3, C5, C6, C7, C8, C9</t>
   </si>
   <si>
-    <t>100nF, 0603</t>
+    <t>100nF</t>
   </si>
   <si>
     <t>Capacitor 0603</t>
@@ -64,19 +65,19 @@
     <t>C2_CH1, C2_CH2, C2_CH3, C2_CH4, C2_CH5, C2_CH6, C2_CH7, C2_CH8, C2_CH9, C2_CH10, C2_CH11, C2_CH12, C2_CH13, C2_CH14, C2_CH15, C2_CH16, C2_CH17, C2_CH18, C2_CH19, C2_CH20, C2_CH21, C2_CH22, C2_CH23, C2_CH24, C2_CH25, C2_CH26, C2_CH27, C2_CH28, C2_CH29, C2_CH30, C2_CH31, C2_CH32, C2_CH33, C2_CH34, C2_CH35, C2_CH36, C2_CH37, C2_CH38, C2_CH39, C2_CH40, C2_CH41, C2_CH42, C2_CH43, C2_CH44, C2_CH45, C2_CH46, C2_CH47, C2_CH48, C2_CH49, C2_CH50, C2_CH51, C2_CH52, C2_CH53, C2_CH54, C2_CH55, C2_CH56, C2_CH57, C2_CH58, C2_CH59, C2_CH60, C2_CH61, C2_CH62, C2_CH63, C2_CH64</t>
   </si>
   <si>
-    <t>1uF, 0603</t>
+    <t>1uF</t>
   </si>
   <si>
     <t>C4, C11, C12</t>
   </si>
   <si>
-    <t>10uF, 0603</t>
+    <t>10uF</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>4.7nF, 0603</t>
+    <t>4.7nF</t>
   </si>
   <si>
     <t>D1, D2, D3</t>
@@ -103,7 +104,7 @@
     <t>R1, R19, R20</t>
   </si>
   <si>
-    <t>5.1kR, 0603</t>
+    <t>5.1kR</t>
   </si>
   <si>
     <t>Resistor 0603</t>
@@ -112,19 +113,19 @@
     <t>R2, R11, R12, R13, R14, R15, R16, R17, R18, R22, R23, R24, R25</t>
   </si>
   <si>
-    <t>470R, 0603</t>
+    <t>470R</t>
   </si>
   <si>
     <t>R3, R4, R5, R6, R7, R8, R9, R10</t>
   </si>
   <si>
-    <t>1.2kR, 0603</t>
+    <t>1.2kR</t>
   </si>
   <si>
     <t>R21</t>
   </si>
   <si>
-    <t>1MR, 0603</t>
+    <t>1MR</t>
   </si>
   <si>
     <t>U1_CH1, U1_CH2, U1_CH3, U1_CH4, U1_CH5, U1_CH6, U1_CH7, U1_CH8, U1_CH9, U1_CH10, U1_CH11, U1_CH12, U1_CH13, U1_CH14, U1_CH15, U1_CH16, U1_CH17, U1_CH18, U1_CH19, U1_CH20, U1_CH21, U1_CH22, U1_CH23, U1_CH24, U1_CH25, U1_CH26, U1_CH27, U1_CH28, U1_CH29, U1_CH30, U1_CH31, U1_CH32, U1_CH33, U1_CH34, U1_CH35, U1_CH36, U1_CH37, U1_CH38, U1_CH39, U1_CH40, U1_CH41, U1_CH42, U1_CH43, U1_CH44, U1_CH45, U1_CH46, U1_CH47, U1_CH48, U1_CH49, U1_CH50, U1_CH51, U1_CH52, U1_CH53, U1_CH54, U1_CH55, U1_CH56, U1_CH57, U1_CH58, U1_CH59, U1_CH60, U1_CH61, U1_CH62, U1_CH63, U1_CH64</t>
@@ -541,14 +542,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE94564-205F-43CC-854F-1C1256838168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A278EEE9-FA0B-473F-97C7-9CA4FE11A387}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
+++ b/Project Outputs for Magnetic-Sequencer/BOM/Bill of Materials-Magnetic-Sequencer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Open-Source\Magnetic-Sequencer\Project Outputs for Magnetic-Sequencer\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB536EDC-F44D-4CDF-B087-D3817B36EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BBEAC5-EE9F-4149-89FF-944BEABE377D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26715" yWindow="8310" windowWidth="19080" windowHeight="17310" xr2:uid="{01E37250-0E70-4208-A306-44A2A59788AD}"/>
+    <workbookView xWindow="-17955" yWindow="8640" windowWidth="17925" windowHeight="17415" xr2:uid="{B8E75C72-9ECD-4E46-9B9A-175CD2CAA822}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Magnetic-Sequ" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -549,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A278EEE9-FA0B-473F-97C7-9CA4FE11A387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4D07A1-7A07-4E2E-BE43-57963C5A06DD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
